--- a/data/trans_orig/Q5415-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F22A739-7F55-4460-9729-82DCE360BA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{621E7FC6-4877-4BF5-828B-B1E06F3D65E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{13A48BA0-F171-4830-B97D-DC8A12B27492}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8401D554-7636-413E-8CAF-29797F9DEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
   <si>
     <t>Población según si es capaz de salir a caminar en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -104,79 +104,79 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,69%</t>
+    <t>3,2%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
   </si>
   <si>
     <t>8,01%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
     <t>89,84%</t>
   </si>
   <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
     <t>89,56%</t>
   </si>
   <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,247 +191,244 @@
     <t>4,14%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
   </si>
   <si>
     <t>6,4%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
   </si>
   <si>
     <t>9,8%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>89,46%</t>
   </si>
   <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
     <t>86,41%</t>
   </si>
   <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
   </si>
   <si>
     <t>12,82%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
   </si>
   <si>
     <t>89,71%</t>
   </si>
   <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
   </si>
   <si>
     <t>83,66%</t>
   </si>
   <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
 </sst>
 </file>
@@ -843,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656D14F5-D8EB-4AEF-8226-A89D7323D4B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F03E44-96C3-4D55-9FF3-C064817C14F8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2299,7 +2296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C334CDD5-E9AF-4886-8792-C3933D4E6940}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E2D898-AE02-4EF8-A6FC-549B2B8FDFE0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3755,7 +3752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E2D38F-D806-4546-B211-98005D951CB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377203C2-777A-4933-8FE2-95D0FEAD61F5}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4822,10 +4819,10 @@
         <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4837,13 @@
         <v>28413</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
@@ -4855,13 +4852,13 @@
         <v>89044</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>104</v>
@@ -4870,13 +4867,13 @@
         <v>117457</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4888,13 @@
         <v>544160</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>552</v>
@@ -4906,13 +4903,13 @@
         <v>648591</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>1127</v>
@@ -4921,13 +4918,13 @@
         <v>1192751</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,10 +5025,10 @@
         <v>83</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5043,13 @@
         <v>28413</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H29" s="7">
         <v>72</v>
@@ -5061,13 +5058,13 @@
         <v>89044</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M29" s="7">
         <v>104</v>
@@ -5076,13 +5073,13 @@
         <v>117457</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5094,13 @@
         <v>544160</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H30" s="7">
         <v>552</v>
@@ -5112,13 +5109,13 @@
         <v>648591</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M30" s="7">
         <v>1127</v>
@@ -5127,13 +5124,13 @@
         <v>1192751</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,7 +5208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583E9863-B08F-4761-8B18-187481C1D252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67516414-D0AA-4572-9451-312CC9D49EED}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5228,7 +5225,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6245,13 +6242,13 @@
         <v>22297</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>140</v>
@@ -6260,13 +6257,13 @@
         <v>78272</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M24" s="7">
         <v>175</v>
@@ -6275,13 +6272,13 @@
         <v>100568</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,13 +6293,13 @@
         <v>49399</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>238</v>
@@ -6311,13 +6308,13 @@
         <v>131441</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>313</v>
@@ -6326,13 +6323,13 @@
         <v>180840</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6344,13 @@
         <v>625225</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>1327</v>
@@ -6362,13 +6359,13 @@
         <v>815366</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>2244</v>
@@ -6377,13 +6374,13 @@
         <v>1440591</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,13 +6448,13 @@
         <v>22297</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>140</v>
@@ -6466,13 +6463,13 @@
         <v>78272</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>175</v>
@@ -6481,13 +6478,13 @@
         <v>100568</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,13 +6499,13 @@
         <v>49399</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H29" s="7">
         <v>238</v>
@@ -6517,13 +6514,13 @@
         <v>131441</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M29" s="7">
         <v>313</v>
@@ -6532,13 +6529,13 @@
         <v>180840</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,13 +6550,13 @@
         <v>625225</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H30" s="7">
         <v>1327</v>
@@ -6568,13 +6565,13 @@
         <v>815366</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M30" s="7">
         <v>2244</v>
@@ -6583,13 +6580,13 @@
         <v>1440591</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5415-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{621E7FC6-4877-4BF5-828B-B1E06F3D65E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7A4BE43-D678-4925-AC64-BB97CFB8F1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8401D554-7636-413E-8CAF-29797F9DEC48}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ADE6777C-9779-47CB-9F3D-77EE32D9876C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="132">
   <si>
     <t>Población según si es capaz de salir a caminar en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,256 +101,262 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,7%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
   </si>
   <si>
     <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
   </si>
   <si>
     <t>2,27%</t>
@@ -840,7 +846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F03E44-96C3-4D55-9FF3-C064817C14F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517A4E5E-F8C9-4644-B8F7-91B1A5A199DB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2296,7 +2302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E2D898-AE02-4EF8-A6FC-549B2B8FDFE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C601E1-9A1A-4275-82F9-1499EF2B7582}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3752,7 +3758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377203C2-777A-4933-8FE2-95D0FEAD61F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDAD2F9-95D9-4C9B-8CBC-25E64D1293E0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4819,10 +4825,10 @@
         <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4843,13 @@
         <v>28413</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
@@ -4852,13 +4858,13 @@
         <v>89044</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>104</v>
@@ -4867,13 +4873,13 @@
         <v>117457</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4894,13 @@
         <v>544160</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>552</v>
@@ -4903,13 +4909,13 @@
         <v>648591</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>1127</v>
@@ -4918,13 +4924,13 @@
         <v>1192751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,10 +5031,10 @@
         <v>83</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5049,13 @@
         <v>28413</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" s="7">
         <v>72</v>
@@ -5058,13 +5064,13 @@
         <v>89044</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M29" s="7">
         <v>104</v>
@@ -5073,13 +5079,13 @@
         <v>117457</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5100,13 @@
         <v>544160</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H30" s="7">
         <v>552</v>
@@ -5109,13 +5115,13 @@
         <v>648591</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M30" s="7">
         <v>1127</v>
@@ -5124,13 +5130,13 @@
         <v>1192751</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,7 +5214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67516414-D0AA-4572-9451-312CC9D49EED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF5D5E9-2940-42B5-899D-B9D4219498E8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5225,7 +5231,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6242,13 +6248,13 @@
         <v>22297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>140</v>
@@ -6257,13 +6263,13 @@
         <v>78272</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M24" s="7">
         <v>175</v>
@@ -6272,13 +6278,13 @@
         <v>100568</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,13 +6299,13 @@
         <v>49399</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>238</v>
@@ -6308,13 +6314,13 @@
         <v>131441</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>313</v>
@@ -6323,13 +6329,13 @@
         <v>180840</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6350,13 @@
         <v>625225</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>1327</v>
@@ -6359,13 +6365,13 @@
         <v>815366</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>2244</v>
@@ -6374,13 +6380,13 @@
         <v>1440591</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6454,13 @@
         <v>22297</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>140</v>
@@ -6463,13 +6469,13 @@
         <v>78272</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>175</v>
@@ -6478,13 +6484,13 @@
         <v>100568</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6505,13 @@
         <v>49399</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>238</v>
@@ -6514,13 +6520,13 @@
         <v>131441</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>313</v>
@@ -6529,13 +6535,13 @@
         <v>180840</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6556,13 @@
         <v>625225</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H30" s="7">
         <v>1327</v>
@@ -6565,13 +6571,13 @@
         <v>815366</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>2244</v>
@@ -6580,13 +6586,13 @@
         <v>1440591</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5415-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7A4BE43-D678-4925-AC64-BB97CFB8F1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D4B8FD3-76CC-4CE9-B820-BEC759D263C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ADE6777C-9779-47CB-9F3D-77EE32D9876C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB185B06-5D54-4A6A-B611-830E0D1AB275}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="131">
   <si>
     <t>Población según si es capaz de salir a caminar en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,82 +101,82 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
   </si>
   <si>
     <t>8,01%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>89,56%</t>
   </si>
   <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,25 +191,25 @@
     <t>4,14%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>5,73%</t>
+    <t>5,81%</t>
   </si>
   <si>
     <t>8,7%</t>
@@ -218,55 +218,55 @@
     <t>6,4%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
   </si>
   <si>
     <t>9,8%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
   </si>
   <si>
     <t>89,46%</t>
   </si>
   <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>80,82%</t>
   </si>
   <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
   </si>
   <si>
     <t>Población según si es capaz de salir a caminar en 2016 (Tasa respuesta: 19,52%)</t>
@@ -275,37 +275,37 @@
     <t>3,17%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>11,45%</t>
@@ -314,43 +314,43 @@
     <t>8,96%</t>
   </si>
   <si>
-    <t>13,89%</t>
+    <t>13,84%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
   </si>
   <si>
     <t>92,02%</t>
   </si>
   <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>83,37%</t>
   </si>
   <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
   </si>
   <si>
     <t>87,11%</t>
   </si>
   <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
   </si>
   <si>
     <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
@@ -359,82 +359,79 @@
     <t>3,2%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>12,82%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
   </si>
   <si>
     <t>89,71%</t>
   </si>
   <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>83,66%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
   </si>
 </sst>
 </file>
@@ -846,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517A4E5E-F8C9-4644-B8F7-91B1A5A199DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77EC8B9-5069-4F04-97FA-0A9E5BA2E867}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2302,7 +2299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C601E1-9A1A-4275-82F9-1499EF2B7582}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C76DA3-DC36-49DA-844B-CD225F8C9512}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3758,7 +3755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDAD2F9-95D9-4C9B-8CBC-25E64D1293E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018F9E6A-AA6A-4AF8-98C5-C41D89091C02}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5214,7 +5211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF5D5E9-2940-42B5-899D-B9D4219498E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348C2724-86FF-4B06-9AA7-C3C9C05DA7B4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6299,13 +6296,13 @@
         <v>49399</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>238</v>
@@ -6314,13 +6311,13 @@
         <v>131441</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>313</v>
@@ -6329,13 +6326,13 @@
         <v>180840</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6347,13 @@
         <v>625225</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>1327</v>
@@ -6365,13 +6362,13 @@
         <v>815366</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>2244</v>
@@ -6380,13 +6377,13 @@
         <v>1440591</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,13 +6502,13 @@
         <v>49399</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>238</v>
@@ -6520,13 +6517,13 @@
         <v>131441</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>313</v>
@@ -6535,13 +6532,13 @@
         <v>180840</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,13 +6553,13 @@
         <v>625225</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H30" s="7">
         <v>1327</v>
@@ -6571,13 +6568,13 @@
         <v>815366</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>2244</v>
@@ -6586,13 +6583,13 @@
         <v>1440591</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5415-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D4B8FD3-76CC-4CE9-B820-BEC759D263C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E09F73E4-B295-44CF-920E-8EAA960CBE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB185B06-5D54-4A6A-B611-830E0D1AB275}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B494418C-2741-48C1-AC51-C88F9A157D2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="327">
   <si>
     <t>Población según si es capaz de salir a caminar en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Totalmente incapaz</t>
@@ -83,19 +83,187 @@
     <t>50 o mas metros sin ayuda</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>1,46%</t>
@@ -104,9 +272,6 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
     <t>4,62%</t>
   </si>
   <si>
@@ -179,21 +344,162 @@
     <t>91,28%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
     <t>6,5%</t>
   </si>
   <si>
@@ -224,9 +530,6 @@
     <t>8,78%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
     <t>7,62%</t>
   </si>
   <si>
@@ -272,6 +575,150 @@
     <t>Población según si es capaz de salir a caminar en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
     <t>3,17%</t>
   </si>
   <si>
@@ -305,9 +752,6 @@
     <t>3,25%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
     <t>11,45%</t>
   </si>
   <si>
@@ -317,9 +761,6 @@
     <t>13,84%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
     <t>7,09%</t>
   </si>
   <si>
@@ -356,82 +797,229 @@
     <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
   </si>
   <si>
-    <t>3,2%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
   </si>
 </sst>
 </file>
@@ -843,8 +1431,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77EC8B9-5069-4F04-97FA-0A9E5BA2E867}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135E14F9-9042-467F-BC5D-DD405233AE05}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1871,10 +2459,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>7344</v>
+        <v>1894</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -1886,10 +2474,10 @@
         <v>21</v>
       </c>
       <c r="H24" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>31253</v>
+        <v>9223</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>22</v>
@@ -1901,10 +2489,10 @@
         <v>24</v>
       </c>
       <c r="M24" s="7">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N24" s="7">
-        <v>38597</v>
+        <v>11117</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>25</v>
@@ -1922,10 +2510,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>30303</v>
+        <v>9163</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>28</v>
@@ -1937,10 +2525,10 @@
         <v>30</v>
       </c>
       <c r="H25" s="7">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="I25" s="7">
-        <v>54225</v>
+        <v>13937</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>31</v>
@@ -1952,10 +2540,10 @@
         <v>33</v>
       </c>
       <c r="M25" s="7">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="N25" s="7">
-        <v>84528</v>
+        <v>23100</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>34</v>
@@ -1973,10 +2561,10 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>482</v>
+        <v>291</v>
       </c>
       <c r="D26" s="7">
-        <v>464820</v>
+        <v>281525</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>37</v>
@@ -1988,10 +2576,10 @@
         <v>39</v>
       </c>
       <c r="H26" s="7">
-        <v>581</v>
+        <v>346</v>
       </c>
       <c r="I26" s="7">
-        <v>591363</v>
+        <v>319774</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>40</v>
@@ -2003,10 +2591,10 @@
         <v>42</v>
       </c>
       <c r="M26" s="7">
-        <v>1063</v>
+        <v>637</v>
       </c>
       <c r="N26" s="7">
-        <v>1056183</v>
+        <v>601300</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>43</v>
@@ -2024,10 +2612,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -2039,10 +2627,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -2054,10 +2642,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -2071,55 +2659,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" s="7">
-        <v>7344</v>
+        <v>5449</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="7">
         <v>20</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="7">
-        <v>30</v>
-      </c>
       <c r="I28" s="7">
-        <v>31253</v>
+        <v>22031</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M28" s="7">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N28" s="7">
-        <v>38597</v>
+        <v>27480</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,49 +2716,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D29" s="7">
-        <v>30303</v>
+        <v>21140</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H29" s="7">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I29" s="7">
-        <v>54225</v>
+        <v>40288</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="M29" s="7">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="N29" s="7">
-        <v>84528</v>
+        <v>61428</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,49 +2767,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>482</v>
+        <v>191</v>
       </c>
       <c r="D30" s="7">
-        <v>464820</v>
+        <v>183294</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="H30" s="7">
-        <v>581</v>
+        <v>235</v>
       </c>
       <c r="I30" s="7">
-        <v>591363</v>
+        <v>271589</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="M30" s="7">
-        <v>1063</v>
+        <v>426</v>
       </c>
       <c r="N30" s="7">
-        <v>1056183</v>
+        <v>454883</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,63 +2818,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>8</v>
+      </c>
+      <c r="D32" s="7">
+        <v>7344</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="7">
+        <v>30</v>
+      </c>
+      <c r="I32" s="7">
+        <v>31253</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" s="7">
+        <v>38</v>
+      </c>
+      <c r="N32" s="7">
+        <v>38597</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>33</v>
+      </c>
+      <c r="D33" s="7">
+        <v>30303</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="7">
+        <v>50</v>
+      </c>
+      <c r="I33" s="7">
+        <v>54225</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" s="7">
+        <v>83</v>
+      </c>
+      <c r="N33" s="7">
+        <v>84528</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>482</v>
+      </c>
+      <c r="D34" s="7">
+        <v>464820</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="7">
+        <v>581</v>
+      </c>
+      <c r="I34" s="7">
+        <v>591363</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1063</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1056183</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>523</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>502466</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>661</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>676842</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1184</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1179308</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2299,8 +3094,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C76DA3-DC36-49DA-844B-CD225F8C9512}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE89C74-08AE-47E0-92BF-A757CA279068}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2316,7 +3111,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3327,49 +4122,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>23169</v>
+        <v>8111</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="H24" s="7">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>69754</v>
+        <v>10542</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="M24" s="7">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="N24" s="7">
-        <v>92923</v>
+        <v>18653</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,49 +4173,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>35798</v>
+        <v>6983</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="I25" s="7">
-        <v>72783</v>
+        <v>15880</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="N25" s="7">
-        <v>108581</v>
+        <v>22863</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,49 +4224,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>452</v>
+        <v>267</v>
       </c>
       <c r="D26" s="7">
-        <v>500670</v>
+        <v>294692</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="H26" s="7">
-        <v>564</v>
+        <v>319</v>
       </c>
       <c r="I26" s="7">
-        <v>600438</v>
+        <v>327573</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
-        <v>1016</v>
+        <v>586</v>
       </c>
       <c r="N26" s="7">
-        <v>1101108</v>
+        <v>622265</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,10 +4275,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -3495,10 +4290,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -3510,10 +4305,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -3527,55 +4322,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D28" s="7">
-        <v>23169</v>
+        <v>15058</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I28" s="7">
-        <v>69754</v>
+        <v>59211</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="M28" s="7">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="N28" s="7">
-        <v>92923</v>
+        <v>74270</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,49 +4379,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D29" s="7">
-        <v>35798</v>
+        <v>28815</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="H29" s="7">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I29" s="7">
-        <v>72783</v>
+        <v>56903</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="M29" s="7">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="N29" s="7">
-        <v>108581</v>
+        <v>85718</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,49 +4430,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>452</v>
+        <v>185</v>
       </c>
       <c r="D30" s="7">
-        <v>500670</v>
+        <v>205978</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="H30" s="7">
-        <v>564</v>
+        <v>245</v>
       </c>
       <c r="I30" s="7">
-        <v>600438</v>
+        <v>272865</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="M30" s="7">
-        <v>1016</v>
+        <v>430</v>
       </c>
       <c r="N30" s="7">
-        <v>1101108</v>
+        <v>478843</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,63 +4481,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>20</v>
+      </c>
+      <c r="D32" s="7">
+        <v>23169</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H32" s="7">
+        <v>63</v>
+      </c>
+      <c r="I32" s="7">
+        <v>69754</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M32" s="7">
+        <v>83</v>
+      </c>
+      <c r="N32" s="7">
+        <v>92923</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>32</v>
+      </c>
+      <c r="D33" s="7">
+        <v>35798</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" s="7">
+        <v>67</v>
+      </c>
+      <c r="I33" s="7">
+        <v>72783</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M33" s="7">
+        <v>99</v>
+      </c>
+      <c r="N33" s="7">
+        <v>108581</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>452</v>
+      </c>
+      <c r="D34" s="7">
+        <v>500670</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H34" s="7">
+        <v>564</v>
+      </c>
+      <c r="I34" s="7">
+        <v>600438</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1016</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1101108</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>504</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>559637</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>694</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>742975</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1198</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1302612</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3755,8 +4757,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018F9E6A-AA6A-4AF8-98C5-C41D89091C02}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21945CF-661E-4868-A076-BC517E880C81}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3772,7 +4774,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4783,49 +5785,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>18755</v>
+        <v>6379</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="H24" s="7">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>40296</v>
+        <v>6851</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="M24" s="7">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="N24" s="7">
-        <v>59051</v>
+        <v>13229</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,49 +5836,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>28413</v>
+        <v>8184</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I25" s="7">
-        <v>89044</v>
+        <v>18386</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="M25" s="7">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="N25" s="7">
-        <v>117457</v>
+        <v>26571</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,49 +5887,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>575</v>
+        <v>311</v>
       </c>
       <c r="D26" s="7">
-        <v>544160</v>
+        <v>319767</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="H26" s="7">
-        <v>552</v>
+        <v>330</v>
       </c>
       <c r="I26" s="7">
-        <v>648591</v>
+        <v>352525</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="M26" s="7">
-        <v>1127</v>
+        <v>641</v>
       </c>
       <c r="N26" s="7">
-        <v>1192751</v>
+        <v>672292</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,10 +5938,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -4951,10 +5953,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -4966,10 +5968,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -4983,55 +5985,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D28" s="7">
-        <v>18755</v>
+        <v>12376</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="H28" s="7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I28" s="7">
-        <v>40296</v>
+        <v>33446</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="M28" s="7">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N28" s="7">
-        <v>59051</v>
+        <v>45822</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>85</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,49 +6042,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D29" s="7">
-        <v>28413</v>
+        <v>20228</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>86</v>
+        <v>209</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="H29" s="7">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="I29" s="7">
-        <v>89044</v>
+        <v>70658</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="M29" s="7">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="N29" s="7">
-        <v>117457</v>
+        <v>90886</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,49 +6093,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>575</v>
+        <v>264</v>
       </c>
       <c r="D30" s="7">
-        <v>544160</v>
+        <v>224393</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="H30" s="7">
-        <v>552</v>
+        <v>222</v>
       </c>
       <c r="I30" s="7">
-        <v>648591</v>
+        <v>296066</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>98</v>
+        <v>220</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="M30" s="7">
-        <v>1127</v>
+        <v>486</v>
       </c>
       <c r="N30" s="7">
-        <v>1192751</v>
+        <v>520459</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>102</v>
+        <v>224</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>103</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,63 +6144,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>20</v>
+      </c>
+      <c r="D32" s="7">
+        <v>18755</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="7">
+        <v>31</v>
+      </c>
+      <c r="I32" s="7">
+        <v>40296</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M32" s="7">
+        <v>51</v>
+      </c>
+      <c r="N32" s="7">
+        <v>59051</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>32</v>
+      </c>
+      <c r="D33" s="7">
+        <v>28413</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="7">
+        <v>72</v>
+      </c>
+      <c r="I33" s="7">
+        <v>89044</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M33" s="7">
+        <v>104</v>
+      </c>
+      <c r="N33" s="7">
+        <v>117457</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>575</v>
+      </c>
+      <c r="D34" s="7">
+        <v>544160</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H34" s="7">
+        <v>552</v>
+      </c>
+      <c r="I34" s="7">
+        <v>648591</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1127</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1192751</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>627</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>591328</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>655</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>777931</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1282</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1369259</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5211,8 +6420,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348C2724-86FF-4B06-9AA7-C3C9C05DA7B4}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD1B93-0A04-400D-9AE2-7644FDC86001}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5228,7 +6437,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6239,49 +7448,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>22297</v>
+        <v>3912</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="H24" s="7">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="I24" s="7">
-        <v>78272</v>
+        <v>10032</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>109</v>
+        <v>256</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c r="M24" s="7">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="N24" s="7">
-        <v>100568</v>
+        <v>13944</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>111</v>
+        <v>258</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>113</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,49 +7499,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D25" s="7">
-        <v>49399</v>
+        <v>15717</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>262</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c r="H25" s="7">
-        <v>238</v>
+        <v>46</v>
       </c>
       <c r="I25" s="7">
-        <v>131441</v>
+        <v>22339</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>116</v>
+        <v>264</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>117</v>
+        <v>265</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>266</v>
       </c>
       <c r="M25" s="7">
-        <v>313</v>
+        <v>71</v>
       </c>
       <c r="N25" s="7">
-        <v>180840</v>
+        <v>38055</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>120</v>
+        <v>268</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,49 +7550,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>917</v>
+        <v>539</v>
       </c>
       <c r="D26" s="7">
-        <v>625225</v>
+        <v>348537</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>123</v>
+        <v>271</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="H26" s="7">
-        <v>1327</v>
+        <v>760</v>
       </c>
       <c r="I26" s="7">
-        <v>815366</v>
+        <v>575587</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>125</v>
+        <v>273</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>126</v>
+        <v>274</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>275</v>
       </c>
       <c r="M26" s="7">
-        <v>2244</v>
+        <v>1299</v>
       </c>
       <c r="N26" s="7">
-        <v>1440591</v>
+        <v>924124</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>270</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>130</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,10 +7601,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>696921</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -6407,10 +7616,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>1705</v>
+        <v>826</v>
       </c>
       <c r="I27" s="7">
-        <v>1025079</v>
+        <v>607958</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -6422,10 +7631,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>2732</v>
+        <v>1396</v>
       </c>
       <c r="N27" s="7">
-        <v>1722000</v>
+        <v>976124</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -6439,55 +7648,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D28" s="7">
-        <v>22297</v>
+        <v>16907</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>106</v>
+        <v>279</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c r="H28" s="7">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I28" s="7">
-        <v>78272</v>
+        <v>59047</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>108</v>
+        <v>281</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>110</v>
+        <v>283</v>
       </c>
       <c r="M28" s="7">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="N28" s="7">
-        <v>100568</v>
+        <v>75954</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>111</v>
+        <v>284</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>112</v>
+        <v>285</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>113</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,49 +7705,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D29" s="7">
-        <v>49399</v>
+        <v>29552</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>114</v>
+        <v>288</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>115</v>
+        <v>289</v>
       </c>
       <c r="H29" s="7">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="I29" s="7">
-        <v>131441</v>
+        <v>94430</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="M29" s="7">
-        <v>313</v>
+        <v>242</v>
       </c>
       <c r="N29" s="7">
-        <v>180840</v>
+        <v>123982</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>293</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>120</v>
+        <v>294</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>121</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,49 +7756,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>917</v>
+        <v>378</v>
       </c>
       <c r="D30" s="7">
-        <v>625225</v>
+        <v>235554</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>123</v>
+        <v>297</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>124</v>
+        <v>298</v>
       </c>
       <c r="H30" s="7">
-        <v>1327</v>
+        <v>567</v>
       </c>
       <c r="I30" s="7">
-        <v>815366</v>
+        <v>271356</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="M30" s="7">
-        <v>2244</v>
+        <v>945</v>
       </c>
       <c r="N30" s="7">
-        <v>1440591</v>
+        <v>506910</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>130</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,63 +7807,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>457</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282013</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>879</v>
+      </c>
+      <c r="I31" s="7">
+        <v>424832</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1336</v>
+      </c>
+      <c r="N31" s="7">
+        <v>706845</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>35</v>
+      </c>
+      <c r="D32" s="7">
+        <v>20819</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H32" s="7">
+        <v>140</v>
+      </c>
+      <c r="I32" s="7">
+        <v>69079</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M32" s="7">
+        <v>175</v>
+      </c>
+      <c r="N32" s="7">
+        <v>89898</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>75</v>
+      </c>
+      <c r="D33" s="7">
+        <v>45269</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H33" s="7">
+        <v>238</v>
+      </c>
+      <c r="I33" s="7">
+        <v>116768</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="M33" s="7">
+        <v>313</v>
+      </c>
+      <c r="N33" s="7">
+        <v>162037</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>917</v>
+      </c>
+      <c r="D34" s="7">
+        <v>584090</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1327</v>
+      </c>
+      <c r="I34" s="7">
+        <v>846944</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2244</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1431034</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1027</v>
       </c>
-      <c r="D31" s="7">
-        <v>696921</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>650178</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>1705</v>
       </c>
-      <c r="I31" s="7">
-        <v>1025079</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>1032791</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>2732</v>
       </c>
-      <c r="N31" s="7">
-        <v>1722000</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="N35" s="7">
+        <v>1682969</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
